--- a/medicine/Data/对接结果.xlsx
+++ b/medicine/Data/对接结果.xlsx
@@ -44,18 +44,12 @@
     <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_160253_000460</t>
   </si>
   <si>
-    <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_160814_000645</t>
-  </si>
-  <si>
     <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_161439_000097</t>
   </si>
   <si>
     <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_162310_000238</t>
   </si>
   <si>
-    <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_163431_000346</t>
-  </si>
-  <si>
     <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_165320_000265</t>
   </si>
   <si>
@@ -69,12 +63,6 @@
   </si>
   <si>
     <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_171622_000477</t>
-  </si>
-  <si>
-    <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_173029_000001</t>
-  </si>
-  <si>
-    <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_173625_000892</t>
   </si>
   <si>
     <r>
@@ -745,6 +733,22 @@
   </si>
   <si>
     <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181120_222905_000455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_163431_000346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_173029_000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_160814_000645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://systemsdock.unit.oist.jp/iddp/preProcess/load/20181121_173625_000892</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +756,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,15 +806,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -829,15 +824,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,16 +842,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1140,7 +1125,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1150,27 +1135,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>37</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>38</v>
+      <c r="A2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>39</v>
+      <c r="A3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -1178,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -1186,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -1194,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -1202,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -1210,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -1218,95 +1203,95 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -1318,6 +1303,10 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A13" r:id="rId3"/>
+    <hyperlink ref="A19" r:id="rId4"/>
+    <hyperlink ref="A10" r:id="rId5"/>
+    <hyperlink ref="A20" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
